--- a/data/pca/factorExposure/factorExposure_2008-12-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2008-12-31.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01964136560429303</v>
+        <v>-0.01819942743193769</v>
       </c>
       <c r="C2">
-        <v>-0.009367645158054523</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.01230984431053251</v>
+      </c>
+      <c r="D2">
+        <v>0.01295273651957503</v>
+      </c>
+      <c r="E2">
+        <v>0.01314005449818124</v>
+      </c>
+      <c r="F2">
+        <v>-0.004367011097938553</v>
+      </c>
+      <c r="G2">
+        <v>0.02055091927909891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.07959824015278387</v>
+        <v>-0.0826524268528229</v>
       </c>
       <c r="C4">
-        <v>-0.08488048371509253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.08799835694802437</v>
+      </c>
+      <c r="D4">
+        <v>-0.05891367037264144</v>
+      </c>
+      <c r="E4">
+        <v>0.031457127424102</v>
+      </c>
+      <c r="F4">
+        <v>-0.02074704028158985</v>
+      </c>
+      <c r="G4">
+        <v>0.02790339027269151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.004101053548313621</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.001674126970038008</v>
+      </c>
+      <c r="D5">
+        <v>-0.0007123480291351168</v>
+      </c>
+      <c r="E5">
+        <v>-0.004829820340976902</v>
+      </c>
+      <c r="F5">
+        <v>-0.002243027467936543</v>
+      </c>
+      <c r="G5">
+        <v>-0.005250417334153604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1698478273139434</v>
+        <v>-0.1713135919694103</v>
       </c>
       <c r="C6">
-        <v>0.02101758977153893</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.00977525173715107</v>
+      </c>
+      <c r="D6">
+        <v>-0.06500062743968128</v>
+      </c>
+      <c r="E6">
+        <v>-0.05742461134335518</v>
+      </c>
+      <c r="F6">
+        <v>-0.03010959417267646</v>
+      </c>
+      <c r="G6">
+        <v>-0.02248542302781557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.05325701850801461</v>
+        <v>-0.05496958134355962</v>
       </c>
       <c r="C7">
-        <v>-0.05793073902957611</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.06309120625224074</v>
+      </c>
+      <c r="D7">
+        <v>-0.06613976648113909</v>
+      </c>
+      <c r="E7">
+        <v>0.06731188805048936</v>
+      </c>
+      <c r="F7">
+        <v>0.009772438266121479</v>
+      </c>
+      <c r="G7">
+        <v>0.07717189500094294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.05102265191205509</v>
+        <v>-0.04886901385196656</v>
       </c>
       <c r="C8">
-        <v>-0.05418746221596736</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.05420272675657871</v>
+      </c>
+      <c r="D8">
+        <v>0.02011442876536075</v>
+      </c>
+      <c r="E8">
+        <v>0.04238210189154247</v>
+      </c>
+      <c r="F8">
+        <v>0.01513530615619975</v>
+      </c>
+      <c r="G8">
+        <v>0.003183993252989724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.05696494463615336</v>
+        <v>-0.06165171604334033</v>
       </c>
       <c r="C9">
-        <v>-0.09383993152749591</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.09465798030159303</v>
+      </c>
+      <c r="D9">
+        <v>-0.08909518993123466</v>
+      </c>
+      <c r="E9">
+        <v>0.05196911379876704</v>
+      </c>
+      <c r="F9">
+        <v>-0.005764282579868242</v>
+      </c>
+      <c r="G9">
+        <v>0.005004589747137965</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.117331777859828</v>
+        <v>-0.1036571017206621</v>
       </c>
       <c r="C10">
-        <v>0.1434306282158294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.1332716902240101</v>
+      </c>
+      <c r="D10">
+        <v>0.09372592451766389</v>
+      </c>
+      <c r="E10">
+        <v>0.04655212363878316</v>
+      </c>
+      <c r="F10">
+        <v>0.02898594667396358</v>
+      </c>
+      <c r="G10">
+        <v>-0.008784955742563376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.07841117914729866</v>
+        <v>-0.07584518758264802</v>
       </c>
       <c r="C11">
-        <v>-0.1360248210298869</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.1345193632510516</v>
+      </c>
+      <c r="D11">
+        <v>-0.04748521246807302</v>
+      </c>
+      <c r="E11">
+        <v>0.06896026012681372</v>
+      </c>
+      <c r="F11">
+        <v>-0.00330111886282948</v>
+      </c>
+      <c r="G11">
+        <v>-0.002947933448099133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.07975319631797054</v>
+        <v>-0.07597601474151587</v>
       </c>
       <c r="C12">
-        <v>-0.162398848576283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.1588512499916477</v>
+      </c>
+      <c r="D12">
+        <v>-0.05146503152841247</v>
+      </c>
+      <c r="E12">
+        <v>0.07056062590800802</v>
+      </c>
+      <c r="F12">
+        <v>0.004585995541233838</v>
+      </c>
+      <c r="G12">
+        <v>0.02242612734554167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.03993115893684163</v>
+        <v>-0.04168538257312131</v>
       </c>
       <c r="C13">
-        <v>-0.06903099510771808</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.07365763476769524</v>
+      </c>
+      <c r="D13">
+        <v>-0.03261591393724154</v>
+      </c>
+      <c r="E13">
+        <v>0.07454390775549037</v>
+      </c>
+      <c r="F13">
+        <v>0.009360681625893751</v>
+      </c>
+      <c r="G13">
+        <v>0.03277398561161231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.02089623834348385</v>
+        <v>-0.02343767356410608</v>
       </c>
       <c r="C14">
-        <v>-0.05039324867353204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.05130503950036551</v>
+      </c>
+      <c r="D14">
+        <v>-0.04357940634396718</v>
+      </c>
+      <c r="E14">
+        <v>0.07076467932879284</v>
+      </c>
+      <c r="F14">
+        <v>0.0044039600415254</v>
+      </c>
+      <c r="G14">
+        <v>-0.007283238319288869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.03339330580949507</v>
+        <v>-0.03360837350774633</v>
       </c>
       <c r="C15">
-        <v>-0.06565588670492979</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.0634453966485973</v>
+      </c>
+      <c r="D15">
+        <v>-0.04702859725809417</v>
+      </c>
+      <c r="E15">
+        <v>0.01866818253139413</v>
+      </c>
+      <c r="F15">
+        <v>0.01872419243582756</v>
+      </c>
+      <c r="G15">
+        <v>0.01422008694588662</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.05616364125910402</v>
+        <v>-0.05483661910207942</v>
       </c>
       <c r="C16">
-        <v>-0.1557966522919283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.1542850392083853</v>
+      </c>
+      <c r="D16">
+        <v>-0.04723126863941267</v>
+      </c>
+      <c r="E16">
+        <v>0.06205288248766137</v>
+      </c>
+      <c r="F16">
+        <v>-0.02187499982843633</v>
+      </c>
+      <c r="G16">
+        <v>-0.0143118120664783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.006980053909054596</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.005214453885481595</v>
+      </c>
+      <c r="D17">
+        <v>0.003008529504450577</v>
+      </c>
+      <c r="E17">
+        <v>-0.01161495651663887</v>
+      </c>
+      <c r="F17">
+        <v>0.009344028067395156</v>
+      </c>
+      <c r="G17">
+        <v>-0.007474392081558414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>-0.0436229672000751</v>
+        <v>-0.0539884067311131</v>
       </c>
       <c r="C18">
-        <v>-0.05427931587494932</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.04910655401546364</v>
+      </c>
+      <c r="D18">
+        <v>0.002409275862292816</v>
+      </c>
+      <c r="E18">
+        <v>-0.05912621668290419</v>
+      </c>
+      <c r="F18">
+        <v>-0.004188253779609021</v>
+      </c>
+      <c r="G18">
+        <v>-0.0143607233289719</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.05731981611329189</v>
+        <v>-0.05655655000560537</v>
       </c>
       <c r="C20">
-        <v>-0.105747247350667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.1032559626940529</v>
+      </c>
+      <c r="D20">
+        <v>-0.07092862713321908</v>
+      </c>
+      <c r="E20">
+        <v>0.0591961756736637</v>
+      </c>
+      <c r="F20">
+        <v>0.004014930705249697</v>
+      </c>
+      <c r="G20">
+        <v>0.007432312045999827</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.04406376401231319</v>
+        <v>-0.04579090457757516</v>
       </c>
       <c r="C21">
-        <v>-0.06699239778612248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.06356200388843943</v>
+      </c>
+      <c r="D21">
+        <v>-0.01988295033759171</v>
+      </c>
+      <c r="E21">
+        <v>0.05954632771872158</v>
+      </c>
+      <c r="F21">
+        <v>-0.002765368082251226</v>
+      </c>
+      <c r="G21">
+        <v>0.02679982808093106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.04556576517002006</v>
+        <v>-0.04532119068997691</v>
       </c>
       <c r="C22">
-        <v>-0.0376595425653803</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04138067016818736</v>
+      </c>
+      <c r="D22">
+        <v>0.09779523427782803</v>
+      </c>
+      <c r="E22">
+        <v>-0.04745552816629146</v>
+      </c>
+      <c r="F22">
+        <v>-0.1085116764220453</v>
+      </c>
+      <c r="G22">
+        <v>-0.1196350547527561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.04557545593630507</v>
+        <v>-0.04532967020290896</v>
       </c>
       <c r="C23">
-        <v>-0.03765313247334318</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.04137505531577714</v>
+      </c>
+      <c r="D23">
+        <v>0.09783583865088594</v>
+      </c>
+      <c r="E23">
+        <v>-0.04745180182108728</v>
+      </c>
+      <c r="F23">
+        <v>-0.1085091077052728</v>
+      </c>
+      <c r="G23">
+        <v>-0.1196996688728928</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06500963307346777</v>
+        <v>-0.06364728599431933</v>
       </c>
       <c r="C24">
-        <v>-0.1435111711393957</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.1399458080518249</v>
+      </c>
+      <c r="D24">
+        <v>-0.0552551342637268</v>
+      </c>
+      <c r="E24">
+        <v>0.06508049104456845</v>
+      </c>
+      <c r="F24">
+        <v>-0.007293293246106997</v>
+      </c>
+      <c r="G24">
+        <v>0.006186147154215443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.07180463242273773</v>
+        <v>-0.06939660776745174</v>
       </c>
       <c r="C25">
-        <v>-0.1287790351947285</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.1263530724884168</v>
+      </c>
+      <c r="D25">
+        <v>-0.04287198004935278</v>
+      </c>
+      <c r="E25">
+        <v>0.08086048023145531</v>
+      </c>
+      <c r="F25">
+        <v>0.01968949963521756</v>
+      </c>
+      <c r="G25">
+        <v>0.03578026247742106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.05694069501357348</v>
+        <v>-0.06126003893238462</v>
       </c>
       <c r="C26">
-        <v>-0.0761568397981835</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.07846947824854134</v>
+      </c>
+      <c r="D26">
+        <v>-0.0222564540870867</v>
+      </c>
+      <c r="E26">
+        <v>0.06979247723749192</v>
+      </c>
+      <c r="F26">
+        <v>0.01632446721254652</v>
+      </c>
+      <c r="G26">
+        <v>0.02293289091211756</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1743472861790121</v>
+        <v>-0.1778409271635666</v>
       </c>
       <c r="C28">
-        <v>0.2255664863816565</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.2261495286566557</v>
+      </c>
+      <c r="D28">
+        <v>0.001977993704434488</v>
+      </c>
+      <c r="E28">
+        <v>0.1438011978559023</v>
+      </c>
+      <c r="F28">
+        <v>0.05891629862825704</v>
+      </c>
+      <c r="G28">
+        <v>0.0294651556446443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.0249174345667732</v>
+        <v>-0.02686334337254107</v>
       </c>
       <c r="C29">
-        <v>-0.05678277815685694</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.05466016554229641</v>
+      </c>
+      <c r="D29">
+        <v>-0.008515681652126756</v>
+      </c>
+      <c r="E29">
+        <v>0.06746436041534541</v>
+      </c>
+      <c r="F29">
+        <v>0.002956187226714133</v>
+      </c>
+      <c r="G29">
+        <v>-0.005182938822011801</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.0328296775274631</v>
+        <v>-0.03521705284060511</v>
       </c>
       <c r="C30">
-        <v>-0.06783917706301527</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.07521054824372993</v>
+      </c>
+      <c r="D30">
+        <v>-0.1338049379114238</v>
+      </c>
+      <c r="E30">
+        <v>0.06745567656356113</v>
+      </c>
+      <c r="F30">
+        <v>0.04961593419636957</v>
+      </c>
+      <c r="G30">
+        <v>0.04066330560769225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.0526803441213208</v>
+        <v>-0.05182794946987509</v>
       </c>
       <c r="C31">
-        <v>-0.03892493715365281</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.04077312914103334</v>
+      </c>
+      <c r="D31">
+        <v>-0.004769139484202939</v>
+      </c>
+      <c r="E31">
+        <v>0.01556881086606738</v>
+      </c>
+      <c r="F31">
+        <v>-0.04645735259149223</v>
+      </c>
+      <c r="G31">
+        <v>-0.01420053649111952</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.04235710120247797</v>
+        <v>-0.04594987898428585</v>
       </c>
       <c r="C32">
-        <v>-0.05782480170771984</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.05525294309942661</v>
+      </c>
+      <c r="D32">
+        <v>-0.01567407212345691</v>
+      </c>
+      <c r="E32">
+        <v>-0.0002555956401868275</v>
+      </c>
+      <c r="F32">
+        <v>0.01802030334630258</v>
+      </c>
+      <c r="G32">
+        <v>0.01359353209112737</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.07605446227871868</v>
+        <v>-0.08038302708012593</v>
       </c>
       <c r="C33">
-        <v>-0.1171536063508704</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.1263450138795548</v>
+      </c>
+      <c r="D33">
+        <v>-0.06970866172320678</v>
+      </c>
+      <c r="E33">
+        <v>0.06397808621961636</v>
+      </c>
+      <c r="F33">
+        <v>-0.01402744889539908</v>
+      </c>
+      <c r="G33">
+        <v>-0.01823252920333329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05358271276769937</v>
+        <v>-0.05275454313510253</v>
       </c>
       <c r="C34">
-        <v>-0.1286513950076422</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.1275635978154376</v>
+      </c>
+      <c r="D34">
+        <v>-0.08065360034916588</v>
+      </c>
+      <c r="E34">
+        <v>0.07425074795354356</v>
+      </c>
+      <c r="F34">
+        <v>0.01747372033086099</v>
+      </c>
+      <c r="G34">
+        <v>-0.02416694136789799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.02750026652367855</v>
+        <v>-0.02979314159377467</v>
       </c>
       <c r="C35">
-        <v>-0.02224161793198446</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.0243631826176787</v>
+      </c>
+      <c r="D35">
+        <v>-0.009449475057914951</v>
+      </c>
+      <c r="E35">
+        <v>0.02242075195172931</v>
+      </c>
+      <c r="F35">
+        <v>0.01629942561657779</v>
+      </c>
+      <c r="G35">
+        <v>-0.02155869027308732</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02601940490277079</v>
+        <v>-0.02804213038577325</v>
       </c>
       <c r="C36">
-        <v>-0.05844302361202097</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.05694968123979158</v>
+      </c>
+      <c r="D36">
+        <v>-0.05985452779851473</v>
+      </c>
+      <c r="E36">
+        <v>0.005687054842423979</v>
+      </c>
+      <c r="F36">
+        <v>0.0231244058535959</v>
+      </c>
+      <c r="G36">
+        <v>-0.08736772822907872</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>-0.0005920220831020447</v>
+        <v>-0.004158803129868244</v>
       </c>
       <c r="C37">
-        <v>0.0004236475961893551</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.007671377629548343</v>
+      </c>
+      <c r="D37">
+        <v>-0.001571228890478946</v>
+      </c>
+      <c r="E37">
+        <v>0.009684505723969341</v>
+      </c>
+      <c r="F37">
+        <v>-0.002696161295777073</v>
+      </c>
+      <c r="G37">
+        <v>0.004547172480409183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.07957050985675784</v>
+        <v>-0.07468226318835741</v>
       </c>
       <c r="C39">
-        <v>-0.1589519277177741</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.1516197786878849</v>
+      </c>
+      <c r="D39">
+        <v>-0.0202330200799763</v>
+      </c>
+      <c r="E39">
+        <v>0.1191079089902456</v>
+      </c>
+      <c r="F39">
+        <v>-0.03360349899096212</v>
+      </c>
+      <c r="G39">
+        <v>0.03029065494160605</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.04846644662348252</v>
+        <v>-0.05130806701978575</v>
       </c>
       <c r="C40">
-        <v>-0.07490120064693291</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.08006241619079674</v>
+      </c>
+      <c r="D40">
+        <v>-0.01113379434075707</v>
+      </c>
+      <c r="E40">
+        <v>0.03653702471248919</v>
+      </c>
+      <c r="F40">
+        <v>0.04592681513366226</v>
+      </c>
+      <c r="G40">
+        <v>-0.003295172237654679</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02888439417450741</v>
+        <v>-0.02900446209056693</v>
       </c>
       <c r="C41">
-        <v>-0.02391101859885598</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.0253731799126304</v>
+      </c>
+      <c r="D41">
+        <v>0.009344889690483998</v>
+      </c>
+      <c r="E41">
+        <v>-0.01374060829705918</v>
+      </c>
+      <c r="F41">
+        <v>0.01126419766969019</v>
+      </c>
+      <c r="G41">
+        <v>-0.003148141944988087</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04324187694051721</v>
+        <v>-0.04176230587897854</v>
       </c>
       <c r="C43">
-        <v>-0.04340622309263798</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.039929109543532</v>
+      </c>
+      <c r="D43">
+        <v>0.01388473623174777</v>
+      </c>
+      <c r="E43">
+        <v>0.01849880445632233</v>
+      </c>
+      <c r="F43">
+        <v>-0.02659379195248032</v>
+      </c>
+      <c r="G43">
+        <v>-0.03072516260420404</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.05710433144001598</v>
+        <v>-0.061356605413393</v>
       </c>
       <c r="C44">
-        <v>-0.09180406186454471</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.09356426807590836</v>
+      </c>
+      <c r="D44">
+        <v>-0.2892161617822435</v>
+      </c>
+      <c r="E44">
+        <v>0.1117177658125858</v>
+      </c>
+      <c r="F44">
+        <v>0.1008266143595607</v>
+      </c>
+      <c r="G44">
+        <v>-0.134696733370317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0005691872476734179</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>0.0006518330383643942</v>
+      </c>
+      <c r="D45">
+        <v>0.0002633538103634149</v>
+      </c>
+      <c r="E45">
+        <v>-0.001530380315721101</v>
+      </c>
+      <c r="F45">
+        <v>-0.002527538703464859</v>
+      </c>
+      <c r="G45">
+        <v>0.00321450496608241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.02819175195254252</v>
+        <v>-0.02923465715766994</v>
       </c>
       <c r="C46">
-        <v>-0.04558393195369385</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.04232759847938095</v>
+      </c>
+      <c r="D46">
+        <v>-0.001502301063586908</v>
+      </c>
+      <c r="E46">
+        <v>0.06224070783077167</v>
+      </c>
+      <c r="F46">
+        <v>-0.03739111035529268</v>
+      </c>
+      <c r="G46">
+        <v>-0.005347404838372327</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.05629505467348282</v>
+        <v>-0.05390606463263973</v>
       </c>
       <c r="C47">
-        <v>-0.04063434314576062</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.03987294799031264</v>
+      </c>
+      <c r="D47">
+        <v>0.03265456012193222</v>
+      </c>
+      <c r="E47">
+        <v>-0.008271206826799821</v>
+      </c>
+      <c r="F47">
+        <v>-0.06407084268267912</v>
+      </c>
+      <c r="G47">
+        <v>-0.03273213140701516</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.048041808753345</v>
+        <v>-0.04994796129045545</v>
       </c>
       <c r="C48">
-        <v>-0.07397646073324768</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.07259782519821896</v>
+      </c>
+      <c r="D48">
+        <v>-0.03234336643289119</v>
+      </c>
+      <c r="E48">
+        <v>0.05656491255662368</v>
+      </c>
+      <c r="F48">
+        <v>-0.0001507746525378825</v>
+      </c>
+      <c r="G48">
+        <v>0.0411266025711758</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.185196064300763</v>
+        <v>-0.1914101877019069</v>
       </c>
       <c r="C49">
-        <v>0.02811686645243307</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.02181554130217768</v>
+      </c>
+      <c r="D49">
+        <v>-0.0315959073600733</v>
+      </c>
+      <c r="E49">
+        <v>-0.01669329334918913</v>
+      </c>
+      <c r="F49">
+        <v>0.04888517541034289</v>
+      </c>
+      <c r="G49">
+        <v>0.06980347716377032</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.05238857071188113</v>
+        <v>-0.05242991929345669</v>
       </c>
       <c r="C50">
-        <v>-0.03728456533706449</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.039742569055415</v>
+      </c>
+      <c r="D50">
+        <v>-0.01960077136577101</v>
+      </c>
+      <c r="E50">
+        <v>0.006948933380957372</v>
+      </c>
+      <c r="F50">
+        <v>-0.04200134914801372</v>
+      </c>
+      <c r="G50">
+        <v>-0.004658020949406276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>-0.1403910794712464</v>
+        <v>-0.1354327525714257</v>
       </c>
       <c r="C52">
-        <v>-0.03342340600733126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.0319650004158866</v>
+      </c>
+      <c r="D52">
+        <v>-0.04275109025336387</v>
+      </c>
+      <c r="E52">
+        <v>-0.07386331110200252</v>
+      </c>
+      <c r="F52">
+        <v>-0.09413142857992009</v>
+      </c>
+      <c r="G52">
+        <v>-0.04562416831549365</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1669713620471946</v>
+        <v>-0.1608220158865362</v>
       </c>
       <c r="C53">
-        <v>0.01393355847103283</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.01016257953533664</v>
+      </c>
+      <c r="D53">
+        <v>-0.07875695550967039</v>
+      </c>
+      <c r="E53">
+        <v>-0.1139045224722329</v>
+      </c>
+      <c r="F53">
+        <v>-0.1450484287455476</v>
+      </c>
+      <c r="G53">
+        <v>-0.04518679521827544</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01237415486549201</v>
+        <v>-0.01422749664444499</v>
       </c>
       <c r="C54">
-        <v>-0.04201133174620239</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.04181503403878187</v>
+      </c>
+      <c r="D54">
+        <v>-0.01635596066937978</v>
+      </c>
+      <c r="E54">
+        <v>0.0384415880830484</v>
+      </c>
+      <c r="F54">
+        <v>-0.005922229771693307</v>
+      </c>
+      <c r="G54">
+        <v>0.003667401741060497</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.1219323247889782</v>
+        <v>-0.1194482664216979</v>
       </c>
       <c r="C55">
-        <v>-0.01463435656611063</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01772278503557527</v>
+      </c>
+      <c r="D55">
+        <v>-0.05566367829186862</v>
+      </c>
+      <c r="E55">
+        <v>-0.04633371339867456</v>
+      </c>
+      <c r="F55">
+        <v>-0.1501470104498279</v>
+      </c>
+      <c r="G55">
+        <v>-0.05486211781732046</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1795712481847628</v>
+        <v>-0.174345887411504</v>
       </c>
       <c r="C56">
-        <v>0.008385942927026647</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.008131953589582528</v>
+      </c>
+      <c r="D56">
+        <v>-0.02961291472334951</v>
+      </c>
+      <c r="E56">
+        <v>-0.1469239365503666</v>
+      </c>
+      <c r="F56">
+        <v>-0.1477277783883737</v>
+      </c>
+      <c r="G56">
+        <v>-0.03131079578150961</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04252150747508848</v>
+        <v>-0.04187868207467788</v>
       </c>
       <c r="C58">
-        <v>-0.09782327596611612</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.1077125454080286</v>
+      </c>
+      <c r="D58">
+        <v>0.005411412310517115</v>
+      </c>
+      <c r="E58">
+        <v>0.04008462988612086</v>
+      </c>
+      <c r="F58">
+        <v>-0.02428525852121008</v>
+      </c>
+      <c r="G58">
+        <v>-0.0004273392730619864</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1858154851203022</v>
+        <v>-0.1927210152063019</v>
       </c>
       <c r="C59">
-        <v>0.1638065605948425</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.1720073448959502</v>
+      </c>
+      <c r="D59">
+        <v>0.08764740778770815</v>
+      </c>
+      <c r="E59">
+        <v>0.06975172629491296</v>
+      </c>
+      <c r="F59">
+        <v>-0.0109851421126658</v>
+      </c>
+      <c r="G59">
+        <v>0.04267583941411598</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2101927700248588</v>
+        <v>-0.2081341669558617</v>
       </c>
       <c r="C60">
-        <v>0.005607386533878629</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.0005693476083845219</v>
+      </c>
+      <c r="D60">
+        <v>0.06740052123701105</v>
+      </c>
+      <c r="E60">
+        <v>-0.1471657528601235</v>
+      </c>
+      <c r="F60">
+        <v>-0.04566553986196887</v>
+      </c>
+      <c r="G60">
+        <v>0.1004590975716119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.06214257806637485</v>
+        <v>-0.05988846415157194</v>
       </c>
       <c r="C61">
-        <v>-0.1331127114862427</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.1300425057737399</v>
+      </c>
+      <c r="D61">
+        <v>-0.02082132187406935</v>
+      </c>
+      <c r="E61">
+        <v>0.07361940074453764</v>
+      </c>
+      <c r="F61">
+        <v>-0.004072077564543695</v>
+      </c>
+      <c r="G61">
+        <v>0.0272357174554655</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1697927561367185</v>
+        <v>-0.1661893263206588</v>
       </c>
       <c r="C62">
-        <v>0.005217171891879997</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.004914105647951209</v>
+      </c>
+      <c r="D62">
+        <v>-0.02928573894482799</v>
+      </c>
+      <c r="E62">
+        <v>-0.1257735969701287</v>
+      </c>
+      <c r="F62">
+        <v>-0.1337930357288984</v>
+      </c>
+      <c r="G62">
+        <v>-0.04022424439630361</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.03971194835554166</v>
+        <v>-0.04271803872709365</v>
       </c>
       <c r="C63">
-        <v>-0.08178950410067411</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.08520240377194817</v>
+      </c>
+      <c r="D63">
+        <v>-0.01786562584288703</v>
+      </c>
+      <c r="E63">
+        <v>0.03672580886976981</v>
+      </c>
+      <c r="F63">
+        <v>0.02038495631083789</v>
+      </c>
+      <c r="G63">
+        <v>-0.01841577616266667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.1134528046519981</v>
+        <v>-0.1107957702977867</v>
       </c>
       <c r="C64">
-        <v>-0.06182157093848852</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.06468973590444133</v>
+      </c>
+      <c r="D64">
+        <v>-0.02786823835175073</v>
+      </c>
+      <c r="E64">
+        <v>-0.0524491388035101</v>
+      </c>
+      <c r="F64">
+        <v>-0.01287284762466858</v>
+      </c>
+      <c r="G64">
+        <v>0.01217959128046388</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.1614516007236206</v>
+        <v>-0.1633445837064946</v>
       </c>
       <c r="C65">
-        <v>0.06312125696702997</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.0497390113043146</v>
+      </c>
+      <c r="D65">
+        <v>-0.0697594466694217</v>
+      </c>
+      <c r="E65">
+        <v>-5.773026196359479e-05</v>
+      </c>
+      <c r="F65">
+        <v>-0.0467489334328841</v>
+      </c>
+      <c r="G65">
+        <v>-0.01972915463812877</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.09529334339627064</v>
+        <v>-0.09086009893124831</v>
       </c>
       <c r="C66">
-        <v>-0.1336613423917931</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.1321377542431706</v>
+      </c>
+      <c r="D66">
+        <v>-0.02216841391639548</v>
+      </c>
+      <c r="E66">
+        <v>0.0940699371051479</v>
+      </c>
+      <c r="F66">
+        <v>0.0176764790799465</v>
+      </c>
+      <c r="G66">
+        <v>0.005534041060088412</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05047893955127086</v>
+        <v>-0.04402142204275613</v>
       </c>
       <c r="C67">
-        <v>-0.08589855447301806</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.07791430477038927</v>
+      </c>
+      <c r="D67">
+        <v>0.06869493210962559</v>
+      </c>
+      <c r="E67">
+        <v>-0.02804447815997207</v>
+      </c>
+      <c r="F67">
+        <v>-0.04832991365578958</v>
+      </c>
+      <c r="G67">
+        <v>-0.06049147565181977</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1456440298423147</v>
+        <v>-0.1473299532929074</v>
       </c>
       <c r="C68">
-        <v>0.2455977261281435</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.2453086712828841</v>
+      </c>
+      <c r="D68">
+        <v>0.0001397763523330379</v>
+      </c>
+      <c r="E68">
+        <v>0.1349202376116162</v>
+      </c>
+      <c r="F68">
+        <v>0.0679398469065272</v>
+      </c>
+      <c r="G68">
+        <v>0.07910326901456408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.04008480008558997</v>
+        <v>-0.0384907096910047</v>
       </c>
       <c r="C69">
-        <v>-0.01617204443448107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.01836040601323397</v>
+      </c>
+      <c r="D69">
+        <v>0.00811614586075951</v>
+      </c>
+      <c r="E69">
+        <v>-0.04911543872818522</v>
+      </c>
+      <c r="F69">
+        <v>-0.03852962230675264</v>
+      </c>
+      <c r="G69">
+        <v>-0.06690470274960002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.07448112995666797</v>
+        <v>-0.0724386476539841</v>
       </c>
       <c r="C70">
-        <v>-0.09709675360185215</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.09586366639912024</v>
+      </c>
+      <c r="D70">
+        <v>0.5342438166347694</v>
+      </c>
+      <c r="E70">
+        <v>-0.2709002817402756</v>
+      </c>
+      <c r="F70">
+        <v>-0.235082453783699</v>
+      </c>
+      <c r="G70">
+        <v>0.4881650980556647</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1701468990770698</v>
+        <v>-0.1724136823136239</v>
       </c>
       <c r="C71">
-        <v>0.2515342015509854</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.2500143571930434</v>
+      </c>
+      <c r="D71">
+        <v>0.007957029704942704</v>
+      </c>
+      <c r="E71">
+        <v>0.1386447921677313</v>
+      </c>
+      <c r="F71">
+        <v>0.07939665424070756</v>
+      </c>
+      <c r="G71">
+        <v>0.09046222929157546</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1447854847907138</v>
+        <v>-0.1492618359734693</v>
       </c>
       <c r="C72">
-        <v>-0.008721397587104631</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.008651366667289138</v>
+      </c>
+      <c r="D72">
+        <v>-0.04417877284430632</v>
+      </c>
+      <c r="E72">
+        <v>-0.02969069106664649</v>
+      </c>
+      <c r="F72">
+        <v>-0.07076116740993957</v>
+      </c>
+      <c r="G72">
+        <v>-0.08546697264184784</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1853425719319207</v>
+        <v>-0.1940584016263822</v>
       </c>
       <c r="C73">
-        <v>-0.01488480636784115</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.02192916371960435</v>
+      </c>
+      <c r="D73">
+        <v>-0.03184733770835337</v>
+      </c>
+      <c r="E73">
+        <v>-0.0891354733333643</v>
+      </c>
+      <c r="F73">
+        <v>-0.04127641490386214</v>
+      </c>
+      <c r="G73">
+        <v>-0.04187433915159753</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.08811121731467887</v>
+        <v>-0.08685392238372609</v>
       </c>
       <c r="C74">
-        <v>-0.004042802439469735</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01083368772968521</v>
+      </c>
+      <c r="D74">
+        <v>-0.06797738601694113</v>
+      </c>
+      <c r="E74">
+        <v>-0.0774591967406091</v>
+      </c>
+      <c r="F74">
+        <v>-0.05577133551094883</v>
+      </c>
+      <c r="G74">
+        <v>-0.04301038224826084</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1218926124360249</v>
+        <v>-0.1145348509604324</v>
       </c>
       <c r="C75">
-        <v>-0.0236025751138103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02479356043266045</v>
+      </c>
+      <c r="D75">
+        <v>-0.02255411256454563</v>
+      </c>
+      <c r="E75">
+        <v>-0.06895686414871098</v>
+      </c>
+      <c r="F75">
+        <v>-0.1241420580458714</v>
+      </c>
+      <c r="G75">
+        <v>-0.07707585177226702</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07730129078211866</v>
+        <v>-0.08758881156868213</v>
       </c>
       <c r="C77">
-        <v>-0.1179928659440947</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.1221915318200753</v>
+      </c>
+      <c r="D77">
+        <v>-0.08077755642440083</v>
+      </c>
+      <c r="E77">
+        <v>0.08581566040163914</v>
+      </c>
+      <c r="F77">
+        <v>-0.05710366704415736</v>
+      </c>
+      <c r="G77">
+        <v>0.1370043271428045</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.07532553675290896</v>
+        <v>-0.08236370393710114</v>
       </c>
       <c r="C78">
-        <v>-0.1238528146787277</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.1243014236198867</v>
+      </c>
+      <c r="D78">
+        <v>-0.04999075603976518</v>
+      </c>
+      <c r="E78">
+        <v>0.1100075139631365</v>
+      </c>
+      <c r="F78">
+        <v>-0.08222511909066277</v>
+      </c>
+      <c r="G78">
+        <v>0.01632282248335588</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1679515488520077</v>
+        <v>-0.1633506333516392</v>
       </c>
       <c r="C79">
-        <v>-0.02166353253881086</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02214082609307693</v>
+      </c>
+      <c r="D79">
+        <v>-0.01611281578754236</v>
+      </c>
+      <c r="E79">
+        <v>-0.06125876555270902</v>
+      </c>
+      <c r="F79">
+        <v>-0.1064358498308332</v>
+      </c>
+      <c r="G79">
+        <v>-0.05094904774466823</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.07987465170199064</v>
+        <v>-0.07606116952343717</v>
       </c>
       <c r="C80">
-        <v>-0.0882407122254856</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.08263950383567201</v>
+      </c>
+      <c r="D80">
+        <v>0.004439982767426247</v>
+      </c>
+      <c r="E80">
+        <v>0.06507553811544359</v>
+      </c>
+      <c r="F80">
+        <v>0.07996254240753012</v>
+      </c>
+      <c r="G80">
+        <v>-0.03597718503243937</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1127647477337698</v>
+        <v>-0.1062654861666761</v>
       </c>
       <c r="C81">
-        <v>0.01340210216663804</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.01163637110621418</v>
+      </c>
+      <c r="D81">
+        <v>0.001907126587079616</v>
+      </c>
+      <c r="E81">
+        <v>-0.08340072932272793</v>
+      </c>
+      <c r="F81">
+        <v>-0.1042247339549758</v>
+      </c>
+      <c r="G81">
+        <v>-0.109774552738047</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1623993850721968</v>
+        <v>-0.1575025546043593</v>
       </c>
       <c r="C82">
-        <v>0.0157851943846132</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.01253942507961497</v>
+      </c>
+      <c r="D82">
+        <v>-0.08311813258026921</v>
+      </c>
+      <c r="E82">
+        <v>-0.1287091254090571</v>
+      </c>
+      <c r="F82">
+        <v>-0.06547185957564705</v>
+      </c>
+      <c r="G82">
+        <v>-0.06170677213543685</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.05096402119807645</v>
+        <v>-0.04765658462763575</v>
       </c>
       <c r="C83">
-        <v>-0.06463510751350506</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.05935349614025828</v>
+      </c>
+      <c r="D83">
+        <v>0.02631692963724088</v>
+      </c>
+      <c r="E83">
+        <v>-0.001742845030450607</v>
+      </c>
+      <c r="F83">
+        <v>0.003082381238308538</v>
+      </c>
+      <c r="G83">
+        <v>0.02132436603085857</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.04725755625267639</v>
+        <v>-0.0461368866361541</v>
       </c>
       <c r="C84">
-        <v>-0.07847716729111402</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.07543736596670285</v>
+      </c>
+      <c r="D84">
+        <v>0.01878719331101968</v>
+      </c>
+      <c r="E84">
+        <v>-0.008454636408467602</v>
+      </c>
+      <c r="F84">
+        <v>-0.02149949271312386</v>
+      </c>
+      <c r="G84">
+        <v>0.0141734382571219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1399746135145339</v>
+        <v>-0.1352080050371224</v>
       </c>
       <c r="C85">
-        <v>-0.007437773572509764</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.008779596303633393</v>
+      </c>
+      <c r="D85">
+        <v>-0.08073993961133366</v>
+      </c>
+      <c r="E85">
+        <v>-0.05320590264128295</v>
+      </c>
+      <c r="F85">
+        <v>-0.1026729339438848</v>
+      </c>
+      <c r="G85">
+        <v>-0.06371711993276963</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.08237406365906712</v>
+        <v>-0.08246069080040719</v>
       </c>
       <c r="C86">
-        <v>-0.1563151011726665</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.1585044530059106</v>
+      </c>
+      <c r="D86">
+        <v>0.6194500083811537</v>
+      </c>
+      <c r="E86">
+        <v>0.4933902909349857</v>
+      </c>
+      <c r="F86">
+        <v>-0.05823761663291407</v>
+      </c>
+      <c r="G86">
+        <v>-0.4196462232739401</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.09225201665583206</v>
+        <v>-0.08772245357562466</v>
       </c>
       <c r="C87">
-        <v>-0.1064802215807793</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.104173394644126</v>
+      </c>
+      <c r="D87">
+        <v>-0.1176308104328931</v>
+      </c>
+      <c r="E87">
+        <v>0.08059132185786148</v>
+      </c>
+      <c r="F87">
+        <v>0.1688470203306304</v>
+      </c>
+      <c r="G87">
+        <v>0.133434313631099</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.05991630133695074</v>
+        <v>-0.05939625430576</v>
       </c>
       <c r="C88">
-        <v>-0.06378612748231229</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.06348499481767805</v>
+      </c>
+      <c r="D88">
+        <v>-0.007782509848773365</v>
+      </c>
+      <c r="E88">
+        <v>-0.0279499489517729</v>
+      </c>
+      <c r="F88">
+        <v>-0.02932951292314498</v>
+      </c>
+      <c r="G88">
+        <v>-0.006165040538166968</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1546662561745683</v>
+        <v>-0.1534796668218907</v>
       </c>
       <c r="C89">
-        <v>0.1932761519990699</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.2021213027884399</v>
+      </c>
+      <c r="D89">
+        <v>-0.007756007861617587</v>
+      </c>
+      <c r="E89">
+        <v>0.0922715567253964</v>
+      </c>
+      <c r="F89">
+        <v>0.06832788537145527</v>
+      </c>
+      <c r="G89">
+        <v>0.04642111015769287</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1862897088083828</v>
+        <v>-0.1893856131741445</v>
       </c>
       <c r="C90">
-        <v>0.2259676748980295</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.2293824986685344</v>
+      </c>
+      <c r="D90">
+        <v>0.00927150164554826</v>
+      </c>
+      <c r="E90">
+        <v>0.1638685496809314</v>
+      </c>
+      <c r="F90">
+        <v>0.1255826783309085</v>
+      </c>
+      <c r="G90">
+        <v>0.102799919570933</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1258843029539004</v>
+        <v>-0.1199569400185946</v>
       </c>
       <c r="C91">
-        <v>0.02098064365194691</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01940167319379306</v>
+      </c>
+      <c r="D91">
+        <v>0.02714526962026997</v>
+      </c>
+      <c r="E91">
+        <v>-0.1107938805191858</v>
+      </c>
+      <c r="F91">
+        <v>-0.1148166053446296</v>
+      </c>
+      <c r="G91">
+        <v>-0.1345537479465712</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1789467080672378</v>
+        <v>-0.1799073226201411</v>
       </c>
       <c r="C92">
-        <v>0.2572538094963374</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.2683570658945534</v>
+      </c>
+      <c r="D92">
+        <v>0.01262706708100585</v>
+      </c>
+      <c r="E92">
+        <v>0.2022939620497857</v>
+      </c>
+      <c r="F92">
+        <v>0.03852211604311888</v>
+      </c>
+      <c r="G92">
+        <v>0.08186792132970998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1816369829614843</v>
+        <v>-0.1884289924712508</v>
       </c>
       <c r="C93">
-        <v>0.2186244313016702</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.223033566982505</v>
+      </c>
+      <c r="D93">
+        <v>0.01359292516736357</v>
+      </c>
+      <c r="E93">
+        <v>0.107600543170318</v>
+      </c>
+      <c r="F93">
+        <v>-0.0002514858271211664</v>
+      </c>
+      <c r="G93">
+        <v>0.06816655923180961</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1173899584767603</v>
+        <v>-0.1122197445553794</v>
       </c>
       <c r="C94">
-        <v>-0.03309482477428966</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03327406840387916</v>
+      </c>
+      <c r="D94">
+        <v>-0.02348805107047236</v>
+      </c>
+      <c r="E94">
+        <v>-0.06525744267601614</v>
+      </c>
+      <c r="F94">
+        <v>-0.1182451658006063</v>
+      </c>
+      <c r="G94">
+        <v>-0.07344164135578272</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1186056372941912</v>
+        <v>-0.1186617237800575</v>
       </c>
       <c r="C95">
-        <v>-0.1101929732360541</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.1181208954471843</v>
+      </c>
+      <c r="D95">
+        <v>0.001075061067364529</v>
+      </c>
+      <c r="E95">
+        <v>0.07102536476766162</v>
+      </c>
+      <c r="F95">
+        <v>-0.003475772003866148</v>
+      </c>
+      <c r="G95">
+        <v>0.01110374223032768</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>-0.1137089331578476</v>
+        <v>-0.1122151961940741</v>
       </c>
       <c r="C96">
-        <v>-0.1264194185983281</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.1291914253939005</v>
+      </c>
+      <c r="D96">
+        <v>0.01869448939279025</v>
+      </c>
+      <c r="E96">
+        <v>-0.05229147512134265</v>
+      </c>
+      <c r="F96">
+        <v>-0.03176649384142751</v>
+      </c>
+      <c r="G96">
+        <v>0.1286002931499969</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1977489969379888</v>
+        <v>-0.2018062350452266</v>
       </c>
       <c r="C97">
-        <v>-0.02340530515490217</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.01391812169417509</v>
+      </c>
+      <c r="D97">
+        <v>0.1778630483897106</v>
+      </c>
+      <c r="E97">
+        <v>-0.4297998113114223</v>
+      </c>
+      <c r="F97">
+        <v>0.6197158341300015</v>
+      </c>
+      <c r="G97">
+        <v>-0.4080029884807866</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1958970913754</v>
+        <v>-0.202995800679883</v>
       </c>
       <c r="C98">
-        <v>-0.01988316345171342</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.02383169229288648</v>
+      </c>
+      <c r="D98">
+        <v>0.07333768831462679</v>
+      </c>
+      <c r="E98">
+        <v>-0.08127612096365688</v>
+      </c>
+      <c r="F98">
+        <v>0.08925464102256411</v>
+      </c>
+      <c r="G98">
+        <v>0.1244948791571356</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.05149057474366325</v>
+        <v>-0.0518104518931234</v>
       </c>
       <c r="C99">
-        <v>-0.06500197828845045</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.0636901273065945</v>
+      </c>
+      <c r="D99">
+        <v>0.0005746263301082401</v>
+      </c>
+      <c r="E99">
+        <v>0.03048168377340344</v>
+      </c>
+      <c r="F99">
+        <v>0.0328760652614059</v>
+      </c>
+      <c r="G99">
+        <v>0.01095872753597082</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>-0.09715477779314161</v>
+        <v>-0.0938742359601993</v>
       </c>
       <c r="C100">
-        <v>-0.3170527847457967</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.3007282376472268</v>
+      </c>
+      <c r="D100">
+        <v>0.1262073761417086</v>
+      </c>
+      <c r="E100">
+        <v>-0.01334817918619777</v>
+      </c>
+      <c r="F100">
+        <v>0.4639477182841632</v>
+      </c>
+      <c r="G100">
+        <v>0.3662403132264545</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.02484854721046936</v>
+        <v>-0.02679772509324488</v>
       </c>
       <c r="C101">
-        <v>-0.05615855577827601</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.05402030493519242</v>
+      </c>
+      <c r="D101">
+        <v>-0.004211114471212214</v>
+      </c>
+      <c r="E101">
+        <v>0.06298921695854437</v>
+      </c>
+      <c r="F101">
+        <v>0.0001013277099580139</v>
+      </c>
+      <c r="G101">
+        <v>-0.002720411829191024</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
